--- a/results/mp/tinybert/corona/confidence/42/stop-words-masking-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-masking-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t>anchor score</t>
   </si>
@@ -70,90 +70,96 @@
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>safe</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safety</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>confidence</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>sure</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>online</t>
   </si>
   <si>
@@ -166,16 +172,13 @@
     <t>grocery</t>
   </si>
   <si>
-    <t>supermarket</t>
+    <t>consumer</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
     <t>co</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -533,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -626,13 +629,13 @@
         <v>18</v>
       </c>
       <c r="K3">
-        <v>0.9696969696969697</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L3">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="M3">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -644,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -652,13 +655,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8055555555555556</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -670,19 +673,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K4">
-        <v>0.9491525423728814</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -702,13 +705,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6815068493150684</v>
+        <v>0.7157534246575342</v>
       </c>
       <c r="C5">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="D5">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -720,19 +723,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K5">
-        <v>0.9347826086956522</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="L5">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="M5">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -744,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -752,13 +755,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.36</v>
+        <v>0.3866666666666667</v>
       </c>
       <c r="C6">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -770,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -794,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -802,13 +805,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3422818791946309</v>
+        <v>0.3691275167785235</v>
       </c>
       <c r="C7">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D7">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -820,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K7">
-        <v>0.8292682926829268</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L7">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M7">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -844,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -852,13 +855,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3372093023255814</v>
+        <v>0.3488372093023256</v>
       </c>
       <c r="C8">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D8">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -870,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K8">
-        <v>0.8203125</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L8">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="M8">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -894,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -902,13 +905,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3121693121693122</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C9">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D9">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -920,19 +923,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K9">
-        <v>0.8055555555555556</v>
+        <v>0.8203125</v>
       </c>
       <c r="L9">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="M9">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -944,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -952,13 +955,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1706349206349206</v>
+        <v>0.1468253968253968</v>
       </c>
       <c r="C10">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D10">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -970,19 +973,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K10">
-        <v>0.7931034482758621</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L10">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M10">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -994,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1002,13 +1005,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.07774798927613941</v>
+        <v>0.09115281501340483</v>
       </c>
       <c r="C11">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D11">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1020,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K11">
-        <v>0.7676056338028169</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L11">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="M11">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1044,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1052,13 +1055,13 @@
         <v>27</v>
       </c>
       <c r="K12">
-        <v>0.7666666666666667</v>
+        <v>0.775</v>
       </c>
       <c r="L12">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M12">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1070,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1078,13 +1081,13 @@
         <v>28</v>
       </c>
       <c r="K13">
-        <v>0.7659574468085106</v>
+        <v>0.7676056338028169</v>
       </c>
       <c r="L13">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="M13">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1096,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1104,13 +1107,13 @@
         <v>29</v>
       </c>
       <c r="K14">
-        <v>0.7452830188679245</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L14">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="M14">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1122,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1130,13 +1133,13 @@
         <v>30</v>
       </c>
       <c r="K15">
-        <v>0.7254901960784313</v>
+        <v>0.74375</v>
       </c>
       <c r="L15">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="M15">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1148,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1156,13 +1159,13 @@
         <v>31</v>
       </c>
       <c r="K16">
-        <v>0.70625</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L16">
-        <v>113</v>
+        <v>37</v>
       </c>
       <c r="M16">
-        <v>113</v>
+        <v>37</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1174,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>47</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1182,13 +1185,13 @@
         <v>32</v>
       </c>
       <c r="K17">
-        <v>0.6984126984126984</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="L17">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="M17">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1200,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1208,13 +1211,13 @@
         <v>33</v>
       </c>
       <c r="K18">
-        <v>0.6702127659574468</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L18">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="M18">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1226,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1234,13 +1237,13 @@
         <v>34</v>
       </c>
       <c r="K19">
-        <v>0.6005221932114883</v>
+        <v>0.6702127659574468</v>
       </c>
       <c r="L19">
-        <v>230</v>
+        <v>63</v>
       </c>
       <c r="M19">
-        <v>230</v>
+        <v>63</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1252,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>153</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1260,13 +1263,13 @@
         <v>35</v>
       </c>
       <c r="K20">
-        <v>0.5833333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L20">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M20">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1278,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1286,13 +1289,13 @@
         <v>36</v>
       </c>
       <c r="K21">
-        <v>0.5764705882352941</v>
+        <v>0.6214099216710183</v>
       </c>
       <c r="L21">
-        <v>196</v>
+        <v>238</v>
       </c>
       <c r="M21">
-        <v>196</v>
+        <v>238</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1304,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1312,13 +1315,13 @@
         <v>37</v>
       </c>
       <c r="K22">
-        <v>0.5617977528089888</v>
+        <v>0.5823529411764706</v>
       </c>
       <c r="L22">
-        <v>50</v>
+        <v>198</v>
       </c>
       <c r="M22">
-        <v>50</v>
+        <v>198</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1330,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>39</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1338,13 +1341,13 @@
         <v>38</v>
       </c>
       <c r="K23">
-        <v>0.5555555555555556</v>
+        <v>0.58</v>
       </c>
       <c r="L23">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M23">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1356,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1364,13 +1367,13 @@
         <v>39</v>
       </c>
       <c r="K24">
-        <v>0.54</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="L24">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M24">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1382,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1390,13 +1393,13 @@
         <v>40</v>
       </c>
       <c r="K25">
-        <v>0.5288135593220339</v>
+        <v>0.5393258426966292</v>
       </c>
       <c r="L25">
-        <v>156</v>
+        <v>48</v>
       </c>
       <c r="M25">
-        <v>156</v>
+        <v>48</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1408,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>139</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1416,13 +1419,13 @@
         <v>41</v>
       </c>
       <c r="K26">
-        <v>0.46875</v>
+        <v>0.5186440677966102</v>
       </c>
       <c r="L26">
-        <v>30</v>
+        <v>153</v>
       </c>
       <c r="M26">
-        <v>30</v>
+        <v>153</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1434,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>34</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1442,13 +1445,13 @@
         <v>42</v>
       </c>
       <c r="K27">
-        <v>0.4657534246575342</v>
+        <v>0.4895397489539749</v>
       </c>
       <c r="L27">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="M27">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1460,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>39</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1468,13 +1471,13 @@
         <v>43</v>
       </c>
       <c r="K28">
-        <v>0.4615384615384616</v>
+        <v>0.4769230769230769</v>
       </c>
       <c r="L28">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M28">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1486,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1494,13 +1497,13 @@
         <v>44</v>
       </c>
       <c r="K29">
-        <v>0.4602510460251046</v>
+        <v>0.46875</v>
       </c>
       <c r="L29">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="M29">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1512,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>129</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1520,13 +1523,13 @@
         <v>45</v>
       </c>
       <c r="K30">
-        <v>0.358974358974359</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L30">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M30">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1538,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1546,13 +1549,13 @@
         <v>46</v>
       </c>
       <c r="K31">
-        <v>0.1076555023923445</v>
+        <v>0.3974358974358974</v>
       </c>
       <c r="L31">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="M31">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1564,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>373</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1572,13 +1575,13 @@
         <v>47</v>
       </c>
       <c r="K32">
-        <v>0.08173076923076923</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="L32">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="M32">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1590,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>382</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1598,13 +1601,13 @@
         <v>48</v>
       </c>
       <c r="K33">
-        <v>0.06599552572706935</v>
+        <v>0.1196172248803828</v>
       </c>
       <c r="L33">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="M33">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1616,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>835</v>
+        <v>368</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1624,13 +1627,13 @@
         <v>49</v>
       </c>
       <c r="K34">
-        <v>0.04994450610432852</v>
+        <v>0.09375</v>
       </c>
       <c r="L34">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="M34">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1642,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>856</v>
+        <v>377</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1650,13 +1653,13 @@
         <v>50</v>
       </c>
       <c r="K35">
-        <v>0.03806228373702422</v>
+        <v>0.06263982102908278</v>
       </c>
       <c r="L35">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="M35">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1668,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1676,25 +1679,25 @@
         <v>51</v>
       </c>
       <c r="K36">
-        <v>0.02289719626168224</v>
+        <v>0.04217536071032187</v>
       </c>
       <c r="L36">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="M36">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="N36">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>2091</v>
+        <v>863</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1702,25 +1705,25 @@
         <v>52</v>
       </c>
       <c r="K37">
-        <v>0.0145114479200258</v>
+        <v>0.04160246533127889</v>
       </c>
       <c r="L37">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="M37">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="N37">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="O37">
-        <v>0.12</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>3056</v>
+        <v>622</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1728,25 +1731,51 @@
         <v>53</v>
       </c>
       <c r="K38">
-        <v>0.008450704225352112</v>
+        <v>0.02986467568828745</v>
       </c>
       <c r="L38">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="M38">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="N38">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>3168</v>
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K39">
+        <v>0.0157860824742268</v>
+      </c>
+      <c r="L39">
+        <v>49</v>
+      </c>
+      <c r="M39">
+        <v>52</v>
+      </c>
+      <c r="N39">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O39">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>3055</v>
       </c>
     </row>
   </sheetData>
